--- a/Instrucciones/MAPEO DE CASILLAS.xlsx
+++ b/Instrucciones/MAPEO DE CASILLAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mau14\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mau14\Escritorio\Github\Proyecto-1\Instrucciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D9FD4-2693-410E-88AD-381FB12A3C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF54E76-0FB3-4F75-933E-BDB3CB9B3AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C1D584A3-BBAC-4253-A0C5-9E8F0B041624}"/>
+    <workbookView xWindow="14580" yWindow="1560" windowWidth="17625" windowHeight="11385" xr2:uid="{C1D584A3-BBAC-4253-A0C5-9E8F0B041624}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>MAPEO DE CASILLAS</t>
   </si>
@@ -231,13 +231,16 @@
   </si>
   <si>
     <t>ÑÑ</t>
+  </si>
+  <si>
+    <t>CASILLAS MORADAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +248,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +305,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -359,28 +381,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,18 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,6 +441,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,6 +488,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC00FF"/>
       <color rgb="FF66FF66"/>
     </mruColors>
   </colors>
@@ -751,85 +802,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B30BBD2-A3B6-48DA-B656-0B7423ADDB55}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="14" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="15" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -838,7 +889,7 @@
       <c r="C4" s="1">
         <v>809</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="1">
@@ -847,21 +898,21 @@
       <c r="F4" s="1">
         <v>682</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="I4" s="1">
         <v>791</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -870,7 +921,7 @@
       <c r="C5" s="1">
         <v>768</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="1">
@@ -879,21 +930,21 @@
       <c r="F5" s="1">
         <v>608</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="9">
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>174</v>
+        <v>415</v>
       </c>
       <c r="I5" s="1">
         <v>791</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -902,7 +953,7 @@
       <c r="C6" s="1">
         <v>669</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="1">
@@ -911,18 +962,18 @@
       <c r="F6" s="1">
         <v>567</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>298</v>
+        <v>537</v>
       </c>
       <c r="I6" s="1">
         <v>791</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -931,7 +982,7 @@
       <c r="C7" s="1">
         <v>553</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="1">
@@ -940,18 +991,18 @@
       <c r="F7" s="1">
         <v>532</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>4</v>
       </c>
       <c r="H7" s="1">
-        <v>415</v>
+        <v>537</v>
       </c>
       <c r="I7" s="1">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
@@ -960,7 +1011,7 @@
       <c r="C8" s="1">
         <v>430</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="1">
@@ -969,18 +1020,18 @@
       <c r="F8" s="1">
         <v>528</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="I8" s="1">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
@@ -989,7 +1040,7 @@
       <c r="C9" s="1">
         <v>313</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1">
@@ -998,18 +1049,18 @@
       <c r="F9" s="1">
         <v>514</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="9">
         <v>6</v>
       </c>
       <c r="H9" s="1">
-        <v>537</v>
+        <v>298</v>
       </c>
       <c r="I9" s="1">
         <v>873</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
@@ -1018,7 +1069,7 @@
       <c r="C10" s="1">
         <v>229</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1">
@@ -1027,18 +1078,18 @@
       <c r="F10" s="1">
         <v>430</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>7</v>
       </c>
       <c r="H10" s="1">
-        <v>415</v>
+        <v>174</v>
       </c>
       <c r="I10" s="1">
         <v>873</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -1047,7 +1098,7 @@
       <c r="C11" s="1">
         <v>138</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="1">
@@ -1056,18 +1107,18 @@
       <c r="F11" s="1">
         <v>350</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>8</v>
       </c>
       <c r="H11" s="1">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1">
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -1076,7 +1127,7 @@
       <c r="C12" s="1">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1">
@@ -1085,18 +1136,18 @@
       <c r="F12" s="1">
         <v>252</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>9</v>
       </c>
       <c r="H12" s="1">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -1105,7 +1156,7 @@
       <c r="C13" s="1">
         <v>31</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="1">
@@ -1114,18 +1165,18 @@
       <c r="F13" s="1">
         <v>252</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="I13" s="1">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -1134,7 +1185,7 @@
       <c r="C14" s="1">
         <v>31</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="1">
@@ -1143,12 +1194,9 @@
       <c r="F14" s="1">
         <v>252</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -1157,7 +1205,7 @@
       <c r="C15" s="1">
         <v>31</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="1">
@@ -1166,12 +1214,9 @@
       <c r="F15" s="1">
         <v>252</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1">
@@ -1180,7 +1225,7 @@
       <c r="C16" s="1">
         <v>31</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="1">
@@ -1193,8 +1238,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1203,7 +1248,7 @@
       <c r="C17" s="1">
         <v>31</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1">
@@ -1216,31 +1261,31 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="16">
         <v>139</v>
       </c>
       <c r="C18" s="2">
         <v>31</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="16">
         <v>648</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="17">
         <v>359</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -1249,10 +1294,10 @@
       <c r="C19" s="1">
         <v>31</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="16">
         <v>648</v>
       </c>
       <c r="F19" s="1">
@@ -1262,8 +1307,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -1272,10 +1317,10 @@
       <c r="C20" s="1">
         <v>114</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="16">
         <v>648</v>
       </c>
       <c r="F20" s="1">
@@ -1285,8 +1330,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -1295,10 +1340,10 @@
       <c r="C21" s="1">
         <v>219</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="16">
         <v>648</v>
       </c>
       <c r="F21" s="1">
@@ -1308,8 +1353,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -1318,21 +1363,18 @@
       <c r="C22" s="1">
         <v>321</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="16">
         <v>648</v>
       </c>
       <c r="F22" s="1">
         <v>766</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -1341,7 +1383,7 @@
       <c r="C23" s="1">
         <v>422</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="1">
@@ -1350,12 +1392,9 @@
       <c r="F23" s="1">
         <v>114</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -1364,7 +1403,7 @@
       <c r="C24" s="1">
         <v>526</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="1">
@@ -1373,12 +1412,9 @@
       <c r="F24" s="1">
         <v>118</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -1387,7 +1423,7 @@
       <c r="C25" s="1">
         <v>630</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="1">
@@ -1396,12 +1432,9 @@
       <c r="F25" s="1">
         <v>181</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -1410,7 +1443,7 @@
       <c r="C26" s="1">
         <v>732</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="1">
@@ -1419,12 +1452,9 @@
       <c r="F26" s="1">
         <v>462</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -1433,7 +1463,7 @@
       <c r="C27" s="1">
         <v>732</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="1">
@@ -1442,12 +1472,9 @@
       <c r="F27" s="1">
         <v>382</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="1">
@@ -1456,7 +1483,7 @@
       <c r="C28" s="1">
         <v>732</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="1">
@@ -1465,12 +1492,9 @@
       <c r="F28" s="1">
         <v>301</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1">
@@ -1479,7 +1503,7 @@
       <c r="C29" s="1">
         <v>732</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="1">
@@ -1488,12 +1512,9 @@
       <c r="F29" s="1">
         <v>490</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="1">
@@ -1502,7 +1523,7 @@
       <c r="C30" s="1">
         <v>732</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="1">
@@ -1515,11 +1536,11 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="1">
@@ -1532,283 +1553,307 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="E33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="E35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="E36" s="28">
+        <v>1</v>
+      </c>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="13">
+      <c r="D54" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D55" s="13">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D56" s="13">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="9">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Instrucciones/MAPEO DE CASILLAS.xlsx
+++ b/Instrucciones/MAPEO DE CASILLAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mau14\Escritorio\Github\Proyecto-1\Instrucciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF54E76-0FB3-4F75-933E-BDB3CB9B3AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA8A89F-02A6-4A09-9AD4-8FBE13AB3C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="1560" windowWidth="17625" windowHeight="11385" xr2:uid="{C1D584A3-BBAC-4253-A0C5-9E8F0B041624}"/>
+    <workbookView xWindow="17595" yWindow="2925" windowWidth="10230" windowHeight="10170" xr2:uid="{C1D584A3-BBAC-4253-A0C5-9E8F0B041624}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -441,33 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,6 +453,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B30BBD2-A3B6-48DA-B656-0B7423ADDB55}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,31 +818,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="11" t="s">
         <v>56</v>
       </c>
@@ -899,10 +899,10 @@
         <v>682</v>
       </c>
       <c r="G4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1">
         <v>791</v>
@@ -931,10 +931,10 @@
         <v>608</v>
       </c>
       <c r="G5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>415</v>
+        <v>174</v>
       </c>
       <c r="I5" s="1">
         <v>791</v>
@@ -963,10 +963,10 @@
         <v>567</v>
       </c>
       <c r="G6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>537</v>
+        <v>298</v>
       </c>
       <c r="I6" s="1">
         <v>791</v>
@@ -992,13 +992,13 @@
         <v>532</v>
       </c>
       <c r="G7" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="I7" s="1">
-        <v>873</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1021,13 +1021,13 @@
         <v>528</v>
       </c>
       <c r="G8" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>415</v>
+        <v>537</v>
       </c>
       <c r="I8" s="1">
-        <v>873</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1050,10 +1050,10 @@
         <v>514</v>
       </c>
       <c r="G9" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
-        <v>298</v>
+        <v>537</v>
       </c>
       <c r="I9" s="1">
         <v>873</v>
@@ -1079,10 +1079,10 @@
         <v>430</v>
       </c>
       <c r="G10" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
-        <v>174</v>
+        <v>415</v>
       </c>
       <c r="I10" s="1">
         <v>873</v>
@@ -1108,10 +1108,10 @@
         <v>350</v>
       </c>
       <c r="G11" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="I11" s="1">
         <v>873</v>
@@ -1137,13 +1137,13 @@
         <v>252</v>
       </c>
       <c r="G12" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="I12" s="1">
-        <v>791</v>
+        <v>873</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1166,13 +1166,13 @@
         <v>252</v>
       </c>
       <c r="G13" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="I13" s="1">
-        <v>791</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1303,9 +1303,6 @@
       <c r="F19" s="1">
         <v>467</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1326,9 +1323,6 @@
       <c r="F20" s="1">
         <v>567</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1562,30 +1556,30 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="31"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1600,10 +1594,10 @@
       <c r="D35" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1618,10 +1612,10 @@
       <c r="D36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="19">
         <v>1</v>
       </c>
-      <c r="F36" s="32"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1636,8 +1630,8 @@
       <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1652,8 +1646,8 @@
       <c r="D38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1668,8 +1662,8 @@
       <c r="D39" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1684,8 +1678,8 @@
       <c r="D40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -1700,8 +1694,8 @@
       <c r="D41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1716,7 +1710,7 @@
       <c r="D42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -1731,7 +1725,7 @@
       <c r="D43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
